--- a/策划方案/枪火项目设计建议.xlsx
+++ b/策划方案/枪火项目设计建议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30075" windowHeight="12345" firstSheet="4" activeTab="7"/>
+    <workbookView windowHeight="12345" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="框架架构与基本机制" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="603">
   <si>
     <t>模块</t>
   </si>
@@ -2056,6 +2056,9 @@
     <t>兽人盾卫</t>
   </si>
   <si>
+    <t>Room2_4</t>
+  </si>
+  <si>
     <t>E10002</t>
   </si>
   <si>
@@ -2074,10 +2077,13 @@
     <t>小蜘蛛1&amp;2</t>
   </si>
   <si>
+    <t>Room2_3</t>
+  </si>
+  <si>
     <t>E10004</t>
   </si>
   <si>
-    <t>Room2_3</t>
+    <t>Room2_6</t>
   </si>
   <si>
     <t>E10005</t>
@@ -2110,6 +2116,9 @@
     <t>哥布林弹弓手2</t>
   </si>
   <si>
+    <t>Room2_8</t>
+  </si>
+  <si>
     <t>E10008</t>
   </si>
   <si>
@@ -2125,9 +2134,6 @@
     <t>蝙蝠1</t>
   </si>
   <si>
-    <t>Room2_4</t>
-  </si>
-  <si>
     <t>哥布林弹弓手1&amp;2</t>
   </si>
   <si>
@@ -2152,9 +2158,6 @@
     <t>精英怪物代码</t>
   </si>
   <si>
-    <t>Room2_6</t>
-  </si>
-  <si>
     <t>E20001</t>
   </si>
   <si>
@@ -2183,9 +2186,6 @@
   </si>
   <si>
     <t>狼人弓箭手2与上面仅颜色不同</t>
-  </si>
-  <si>
-    <t>Room2_8</t>
   </si>
   <si>
     <t>E20006</t>
@@ -2945,12 +2945,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3003,13 +3003,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
@@ -3025,21 +3018,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -3063,7 +3041,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3072,35 +3080,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3121,14 +3100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3139,9 +3110,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3149,6 +3120,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3168,11 +3147,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3195,7 +3173,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3360,37 +3338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3408,13 +3356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3426,13 +3380,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3494,30 +3466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3536,8 +3484,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3569,7 +3541,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -3581,7 +3553,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3590,128 +3562,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3769,91 +3741,91 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="31">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="23">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="23">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="36" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="36" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="21" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="21" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="36" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="36" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="21" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="40">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="40">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" xfId="47" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="47" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" xfId="38" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="38" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="47" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="47" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="38" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="38" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="48" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="48" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" xfId="14" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="14" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" xfId="48" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="48" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="14">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="14">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="39">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="39">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="34">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" xfId="34">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="21">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="46">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" xfId="46">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="28">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="28">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -3886,16 +3858,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" xfId="26">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="4" xfId="26">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="7" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" xfId="26" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="4" xfId="26" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3904,28 +3873,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5394,16 +5360,16 @@
   </cols>
   <sheetData>
     <row r="3" ht="27" spans="2:5">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="70" t="s">
+      <c r="C3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="68" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5411,7 +5377,7 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5470,7 +5436,7 @@
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="69" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5537,7 +5503,7 @@
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="69" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5563,12 +5529,12 @@
       <c r="A38" s="1">
         <v>4</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="69" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="70" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -5579,7 +5545,7 @@
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="70" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -5594,7 +5560,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="1"/>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -5609,7 +5575,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="1"/>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="70" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -5643,7 +5609,7 @@
       </c>
     </row>
     <row r="49" ht="94.5" spans="3:4">
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -5651,7 +5617,7 @@
       </c>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="72" t="s">
+      <c r="C50" s="70" t="s">
         <v>53</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -5659,19 +5625,19 @@
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="72"/>
+      <c r="C51" s="70"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>5</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="72"/>
+      <c r="C53" s="70"/>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -5730,7 +5696,7 @@
       <c r="A63" s="1">
         <v>6</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="69" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5782,7 +5748,7 @@
       <c r="A71" s="1">
         <v>7</v>
       </c>
-      <c r="B71" s="71" t="s">
+      <c r="B71" s="69" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5834,7 +5800,7 @@
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="69" t="s">
         <v>91</v>
       </c>
       <c r="C83" t="s">
@@ -5842,7 +5808,7 @@
       </c>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="71" t="s">
+      <c r="B85" s="69" t="s">
         <v>93</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -6902,12 +6868,12 @@
       </c>
     </row>
     <row r="6" ht="40.5" spans="4:4">
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="63" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" ht="27" spans="4:4">
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="63" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6987,7 +6953,7 @@
       <c r="C25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="19" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7201,12 +7167,12 @@
       </c>
     </row>
     <row r="6" ht="27" spans="4:4">
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="63" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="19" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7252,7 +7218,7 @@
       </c>
     </row>
     <row r="17" ht="27" spans="4:4">
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7307,7 +7273,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="65"/>
+      <c r="D27" s="63"/>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="2"/>
@@ -7358,7 +7324,7 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7374,7 +7340,7 @@
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7382,7 +7348,7 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" ht="54" spans="2:3">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -7394,7 +7360,7 @@
       <c r="C13" s="2"/>
     </row>
     <row r="14" ht="40.5" spans="2:3">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="62" t="s">
         <v>162</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -7420,18 +7386,18 @@
       <c r="B18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="19" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="65"/>
+      <c r="C19" s="63"/>
     </row>
     <row r="20" ht="40.5" spans="2:3">
       <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -7443,7 +7409,7 @@
       <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="19" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7509,7 +7475,7 @@
       <c r="B35" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="64" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7517,19 +7483,19 @@
       <c r="B36" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="66"/>
+      <c r="C36" s="64"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="66"/>
+      <c r="C37" s="64"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="66"/>
+      <c r="C38" s="64"/>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="2"/>
@@ -7548,8 +7514,8 @@
   <sheetPr/>
   <dimension ref="B3:C316"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7631,7 +7597,7 @@
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="57" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7654,7 +7620,7 @@
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="57" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7700,7 +7666,7 @@
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="57" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7728,7 +7694,7 @@
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="57" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8393,12 +8359,12 @@
       </c>
     </row>
     <row r="235" ht="15" spans="3:3">
-      <c r="C235" s="59" t="s">
+      <c r="C235" s="58" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="236" ht="15" spans="3:3">
-      <c r="C236" s="60" t="s">
+      <c r="C236" s="59" t="s">
         <v>285</v>
       </c>
     </row>
@@ -8408,7 +8374,7 @@
       </c>
     </row>
     <row r="238" ht="55.5" spans="3:3">
-      <c r="C238" s="61" t="s">
+      <c r="C238" s="60" t="s">
         <v>287</v>
       </c>
     </row>
@@ -9269,7 +9235,7 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:T22"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9466,7 +9432,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -9484,7 +9450,7 @@
       <c r="T4" s="35"/>
       <c r="U4" s="36"/>
       <c r="W4" s="42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="X4" s="42" t="s">
         <v>371</v>
@@ -9507,7 +9473,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9524,7 +9490,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -9533,7 +9499,7 @@
         <v>8</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -9544,10 +9510,10 @@
       <c r="T5" s="35"/>
       <c r="U5" s="36"/>
       <c r="W5" s="42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="X5" s="42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y5" s="42">
         <v>1</v>
@@ -9567,7 +9533,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G6" s="28">
         <v>2</v>
@@ -9584,7 +9550,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -9593,7 +9559,7 @@
         <v>5</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R6" s="28">
         <v>2</v>
@@ -9604,7 +9570,7 @@
       <c r="T6" s="35"/>
       <c r="U6" s="36"/>
       <c r="W6" s="42" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="X6" s="42" t="s">
         <v>201</v>
@@ -9630,7 +9596,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G7" s="28">
         <v>1</v>
@@ -9649,7 +9615,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -9658,7 +9624,7 @@
         <v>10</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R7" s="28">
         <v>1</v>
@@ -9671,10 +9637,10 @@
       </c>
       <c r="U7" s="36"/>
       <c r="W7" s="42" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="X7" s="42" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y7" s="42">
         <v>1</v>
@@ -9694,7 +9660,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9718,7 +9684,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -9727,10 +9693,10 @@
       <c r="T8" s="35"/>
       <c r="U8" s="36"/>
       <c r="W8" s="42" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="X8" s="42" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Y8" s="42">
         <v>1</v>
@@ -9754,7 +9720,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="36"/>
@@ -9765,7 +9731,7 @@
         <v>7</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -9778,15 +9744,15 @@
         <v>3</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="T9" s="35"/>
       <c r="U9" s="36"/>
       <c r="W9" s="42" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="X9" s="42" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Y9" s="42">
         <v>1</v>
@@ -9806,13 +9772,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="36"/>
@@ -9823,7 +9789,7 @@
         <v>8</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -9832,21 +9798,21 @@
         <v>4</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="R10">
         <v>5</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="T10" s="35"/>
       <c r="U10" s="36"/>
       <c r="W10" s="42" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="X10" s="42" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Y10" s="42">
         <v>1</v>
@@ -9881,7 +9847,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -9899,10 +9865,10 @@
       <c r="T11" s="35"/>
       <c r="U11" s="36"/>
       <c r="W11" s="42" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="X11" s="42" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Y11" s="42">
         <v>1</v>
@@ -9916,7 +9882,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -9925,7 +9891,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9953,7 +9919,7 @@
         <v>4</v>
       </c>
       <c r="Q12" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -9966,10 +9932,10 @@
       </c>
       <c r="U12" s="36"/>
       <c r="W12" s="42" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="X12" s="42" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Y12" s="42">
         <v>1</v>
@@ -10022,10 +9988,10 @@
       <c r="T13" s="35"/>
       <c r="U13" s="36"/>
       <c r="W13" s="42" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="X13" s="42" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Y13" s="42">
         <v>1</v>
@@ -10060,7 +10026,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -10078,10 +10044,10 @@
       <c r="T14" s="35"/>
       <c r="U14" s="36"/>
       <c r="W14" s="42" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="X14" s="42" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Y14" s="42">
         <v>1</v>
@@ -10118,7 +10084,7 @@
         <v>13</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="O15">
         <v>2</v>
@@ -10156,7 +10122,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="36"/>
@@ -10167,7 +10133,7 @@
         <v>14</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -10177,15 +10143,15 @@
       </c>
       <c r="Q16" s="26"/>
       <c r="R16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S16" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="T16" s="35"/>
       <c r="U16" s="36"/>
       <c r="W16" s="43" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="X16" s="43" t="s">
         <v>368</v>
@@ -10202,7 +10168,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -10217,7 +10183,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I17" s="37" t="s">
         <v>270</v>
@@ -10232,7 +10198,7 @@
         <v>15</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -10247,14 +10213,14 @@
         <v>2</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="T17" s="37" t="s">
         <v>270</v>
       </c>
       <c r="U17" s="36"/>
       <c r="W17" s="44" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="X17" s="44" t="s">
         <v>216</v>
@@ -10277,7 +10243,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -10292,7 +10258,7 @@
         <v>16</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -10301,7 +10267,7 @@
         <v>3</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -10310,10 +10276,10 @@
       <c r="T18" s="35"/>
       <c r="U18" s="36"/>
       <c r="W18" s="44" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="X18" s="44" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y18" s="44">
         <v>1</v>
@@ -10348,7 +10314,7 @@
         <v>17</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -10366,10 +10332,10 @@
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
       <c r="W19" s="44" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="X19" s="44" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Y19" s="44">
         <v>1</v>
@@ -10389,7 +10355,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -10406,7 +10372,7 @@
         <v>18</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="O20">
         <v>2</v>
@@ -10415,7 +10381,7 @@
         <v>5</v>
       </c>
       <c r="Q20" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R20">
         <v>3</v>
@@ -10426,10 +10392,10 @@
       <c r="T20" s="35"/>
       <c r="U20" s="36"/>
       <c r="W20" s="44" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="X20" s="44" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y20" s="44">
         <v>1</v>
@@ -10464,7 +10430,7 @@
         <v>19</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -10482,10 +10448,10 @@
       <c r="T21" s="35"/>
       <c r="U21" s="36"/>
       <c r="W21" s="44" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="X21" s="44" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y21" s="44">
         <v>1</v>
@@ -10499,7 +10465,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -10527,7 +10493,7 @@
         <v>20</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="O22">
         <v>2</v>
@@ -10572,7 +10538,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -10586,6 +10552,9 @@
       <c r="M23">
         <v>21</v>
       </c>
+      <c r="N23" s="23" t="s">
+        <v>370</v>
+      </c>
       <c r="O23">
         <v>1</v>
       </c>
@@ -10593,7 +10562,7 @@
         <v>4</v>
       </c>
       <c r="Q23" s="24" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -10629,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="36"/>
@@ -10639,6 +10608,9 @@
       <c r="M24">
         <v>22</v>
       </c>
+      <c r="N24" s="23" t="s">
+        <v>381</v>
+      </c>
       <c r="O24">
         <v>1</v>
       </c>
@@ -10650,7 +10622,7 @@
         <v>2</v>
       </c>
       <c r="S24" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T24" s="35"/>
       <c r="U24" s="36"/>
@@ -10658,7 +10630,7 @@
         <v>420</v>
       </c>
       <c r="X24" s="44" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Y24" s="44">
         <v>1</v>
@@ -10684,7 +10656,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="36"/>
@@ -10694,6 +10666,9 @@
       <c r="M25">
         <v>23</v>
       </c>
+      <c r="N25" s="23" t="s">
+        <v>394</v>
+      </c>
       <c r="O25">
         <v>2</v>
       </c>
@@ -10707,7 +10682,7 @@
         <v>4</v>
       </c>
       <c r="S25" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T25" s="35"/>
       <c r="U25" s="36"/>
@@ -10749,6 +10724,9 @@
       <c r="M26">
         <v>24</v>
       </c>
+      <c r="N26" s="23" t="s">
+        <v>381</v>
+      </c>
       <c r="O26">
         <v>1</v>
       </c>
@@ -10782,7 +10760,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -10810,7 +10788,7 @@
         <v>25</v>
       </c>
       <c r="N27" s="23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -10846,7 +10824,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -10860,6 +10838,9 @@
       <c r="M28">
         <v>26</v>
       </c>
+      <c r="N28" s="23" t="s">
+        <v>374</v>
+      </c>
       <c r="O28">
         <v>1</v>
       </c>
@@ -10867,7 +10848,7 @@
         <v>3</v>
       </c>
       <c r="Q28" s="24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -10903,7 +10884,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I29" s="35"/>
       <c r="J29" s="36"/>
@@ -10913,6 +10894,9 @@
       <c r="M29">
         <v>27</v>
       </c>
+      <c r="N29" s="23" t="s">
+        <v>397</v>
+      </c>
       <c r="O29">
         <v>1</v>
       </c>
@@ -10924,7 +10908,7 @@
         <v>2</v>
       </c>
       <c r="S29" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T29" s="35"/>
       <c r="U29" s="36"/>
@@ -10965,6 +10949,9 @@
       </c>
       <c r="M30">
         <v>28</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>377</v>
       </c>
       <c r="O30">
         <v>2</v>
@@ -11009,7 +10996,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="36"/>
@@ -11019,6 +11006,9 @@
       <c r="M31">
         <v>29</v>
       </c>
+      <c r="N31" s="23" t="s">
+        <v>394</v>
+      </c>
       <c r="O31">
         <v>2</v>
       </c>
@@ -11030,7 +11020,7 @@
         <v>4</v>
       </c>
       <c r="S31" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="T31" s="35"/>
       <c r="U31" s="36"/>
@@ -11052,7 +11042,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -11082,7 +11072,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="O32">
         <v>2</v>
@@ -11296,7 +11286,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -11319,7 +11309,7 @@
         <v>8</v>
       </c>
       <c r="Q37" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -11353,7 +11343,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G38" s="28">
         <v>2</v>
@@ -11376,7 +11366,7 @@
         <v>5</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R38" s="28">
         <v>2</v>
@@ -11413,7 +11403,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G39" s="28">
         <v>1</v>
@@ -11441,7 +11431,7 @@
         <v>10</v>
       </c>
       <c r="Q39" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R39" s="28">
         <v>1</v>
@@ -11468,7 +11458,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -11489,7 +11479,7 @@
         <v>2</v>
       </c>
       <c r="Q40" s="24" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -11525,7 +11515,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="36"/>
@@ -11546,7 +11536,7 @@
         <v>3</v>
       </c>
       <c r="S41" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="T41" s="35"/>
       <c r="U41" s="36"/>
@@ -11574,13 +11564,13 @@
         <v>4</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G42">
         <v>5</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="36"/>
@@ -11597,18 +11587,18 @@
         <v>4</v>
       </c>
       <c r="Q42" s="24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="R42">
         <v>5</v>
       </c>
       <c r="S42" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="T42" s="35"/>
       <c r="U42" s="36"/>
       <c r="W42" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="X42" s="23" t="s">
         <v>444</v>
@@ -11678,7 +11668,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -11687,7 +11677,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -11706,7 +11696,7 @@
         <v>10</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="O44">
         <v>2</v>
@@ -11715,7 +11705,7 @@
         <v>4</v>
       </c>
       <c r="Q44" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -11728,7 +11718,7 @@
       </c>
       <c r="U44" s="36"/>
       <c r="W44" s="23" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="X44" s="23" t="s">
         <v>446</v>
@@ -11781,7 +11771,7 @@
       <c r="T45" s="35"/>
       <c r="U45" s="36"/>
       <c r="W45" s="23" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="X45" s="23" t="s">
         <v>447</v>
@@ -11834,7 +11824,7 @@
       <c r="T46" s="35"/>
       <c r="U46" s="36"/>
       <c r="W46" s="23" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="X46" s="23" t="s">
         <v>448</v>
@@ -11891,7 +11881,7 @@
       <c r="T47" s="35"/>
       <c r="U47" s="36"/>
       <c r="W47" s="23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="X47" s="23" t="s">
         <v>449</v>
@@ -11918,7 +11908,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I48" s="35"/>
       <c r="J48" s="36"/>
@@ -11939,12 +11929,12 @@
         <v>2</v>
       </c>
       <c r="S48" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="T48" s="35"/>
       <c r="U48" s="36"/>
       <c r="W48" s="23" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="X48" s="23" t="s">
         <v>450</v>
@@ -11961,7 +11951,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -11976,7 +11966,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I49" s="37" t="s">
         <v>270</v>
@@ -11991,7 +11981,7 @@
         <v>15</v>
       </c>
       <c r="N49" s="23" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="O49">
         <v>2</v>
@@ -12006,7 +11996,7 @@
         <v>2</v>
       </c>
       <c r="S49" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="T49" s="37" t="s">
         <v>270</v>
@@ -12027,7 +12017,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -12048,7 +12038,7 @@
         <v>3</v>
       </c>
       <c r="Q50" s="24" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -12115,7 +12105,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -12138,7 +12128,7 @@
         <v>5</v>
       </c>
       <c r="Q52" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R52">
         <v>3</v>
@@ -12201,7 +12191,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -12229,7 +12219,7 @@
         <v>20</v>
       </c>
       <c r="N54" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O54">
         <v>2</v>
@@ -12265,7 +12255,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -12286,7 +12276,7 @@
         <v>4</v>
       </c>
       <c r="Q55" s="24" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -12313,7 +12303,7 @@
         <v>2</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I56" s="35"/>
       <c r="J56" s="36"/>
@@ -12334,7 +12324,7 @@
         <v>2</v>
       </c>
       <c r="S56" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T56" s="35"/>
       <c r="U56" s="36"/>
@@ -12359,7 +12349,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I57" s="35"/>
       <c r="J57" s="36"/>
@@ -12382,7 +12372,7 @@
         <v>4</v>
       </c>
       <c r="S57" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T57" s="35"/>
       <c r="U57" s="36"/>
@@ -12439,7 +12429,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -12467,7 +12457,7 @@
         <v>25</v>
       </c>
       <c r="N59" s="23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O59">
         <v>2</v>
@@ -12503,7 +12493,7 @@
         <v>3</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -12524,7 +12514,7 @@
         <v>3</v>
       </c>
       <c r="Q60" s="24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -12551,7 +12541,7 @@
         <v>2</v>
       </c>
       <c r="H61" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I61" s="35"/>
       <c r="J61" s="36"/>
@@ -12572,7 +12562,7 @@
         <v>2</v>
       </c>
       <c r="S61" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T61" s="35"/>
       <c r="U61" s="36"/>
@@ -12639,7 +12629,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I63" s="35"/>
       <c r="J63" s="36"/>
@@ -12660,7 +12650,7 @@
         <v>4</v>
       </c>
       <c r="S63" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="T63" s="35"/>
       <c r="U63" s="36"/>
@@ -12673,7 +12663,7 @@
         <v>15</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -12703,7 +12693,7 @@
         <v>30</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O64">
         <v>2</v>
@@ -12737,7 +12727,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b37cb81f-b5e7-4cc7-b87b-dd0c546ccb2d}</x14:id>
+          <x14:id>{237559b0-3606-41e5-a737-7ee87803132e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12751,7 +12741,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{701ed7ef-5335-4125-afe6-2a0441750aaa}</x14:id>
+          <x14:id>{e968c44a-d31e-47fb-8451-48cc7f8a7026}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12765,7 +12755,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{713cb98b-b2d9-406d-8d3f-a98a8b5e1f00}</x14:id>
+          <x14:id>{bc74cd30-4fc6-4c8f-8377-3d09d12f2a5e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12779,7 +12769,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d4f8c2a0-095d-421b-bee4-63d4b9d84c03}</x14:id>
+          <x14:id>{6e73a3c0-f0c0-4b47-8b29-9f8b764883a9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12793,7 +12783,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ad0385f-2cb6-4bec-a872-0502b72d29be}</x14:id>
+          <x14:id>{c2c6d57e-ab3c-4eb5-b1d5-a9a7e43d39bb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12807,7 +12797,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ff9f4ab-4a48-45af-86b3-3e497c94be7f}</x14:id>
+          <x14:id>{31072330-8063-4b8d-8872-0f1c9ecc714d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12821,7 +12811,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5cebb537-6084-4aa3-b1a3-b8fd1719b0be}</x14:id>
+          <x14:id>{49689d7f-3a10-46b8-9546-4352872bd2ce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12835,7 +12825,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4549ed28-1ede-40e8-a02b-4178b37798b5}</x14:id>
+          <x14:id>{99acf044-7e79-4946-8c2b-540ed5e014b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12849,7 +12839,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4da95226-c249-4161-9705-58c2569867b3}</x14:id>
+          <x14:id>{f8f268ce-521b-40f2-b0f5-2efb078062e4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12863,7 +12853,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7f0ed8b3-fc72-46d2-b1d5-123099d789e2}</x14:id>
+          <x14:id>{e5465bc5-f1b7-47d2-ba0b-b70ef36f160e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12877,7 +12867,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8a565ddd-4b8c-4ee0-801b-ea3cc5dbe574}</x14:id>
+          <x14:id>{85ed16b4-c9e6-41ec-9636-369de3b5dc77}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12891,7 +12881,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{051fcdf8-c35a-40c4-a9cf-57fca74f6cbd}</x14:id>
+          <x14:id>{8f70a7df-b332-4ec8-b55c-efb32897f646}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12905,7 +12895,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55f45b7f-9509-4728-8f61-11b388c34b1a}</x14:id>
+          <x14:id>{6ba2e97e-fbd1-4cf7-acd7-6682ea1761cc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12919,7 +12909,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f03cd275-c5b8-4e92-a580-733a80e3dde5}</x14:id>
+          <x14:id>{8ac1d776-65a2-47ce-adb0-419667f34da4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12969,7 +12959,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f6adfe4-8dde-4847-ba4b-d4903bd0b5e2}</x14:id>
+          <x14:id>{931f3596-cd8e-46e7-9fb1-8fbf1b36de39}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12983,7 +12973,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87ad1766-df98-4d95-9a71-069987f8a085}</x14:id>
+          <x14:id>{31c9c415-2eac-4871-8349-08a8f00036ce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12997,7 +12987,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b3c9b7a9-ff9f-441f-8885-a82e256577a5}</x14:id>
+          <x14:id>{76dc3fa6-72bf-425b-a933-e986a69608c8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -13011,7 +13001,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0bf0406e-b40e-4934-bc6c-af7c79198c09}</x14:id>
+          <x14:id>{cd0a23fc-900c-4123-b730-5daf7be1f6e1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -13025,7 +13015,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d86ac740-2471-4256-a5a6-2e055b50a346}</x14:id>
+          <x14:id>{2aeab45b-dd37-4f3e-aa1e-d90f34fcae84}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -13039,7 +13029,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b37cb81f-b5e7-4cc7-b87b-dd0c546ccb2d}">
+          <x14:cfRule type="dataBar" id="{237559b0-3606-41e5-a737-7ee87803132e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13050,7 +13040,7 @@
           <xm:sqref>E2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{701ed7ef-5335-4125-afe6-2a0441750aaa}">
+          <x14:cfRule type="dataBar" id="{e968c44a-d31e-47fb-8451-48cc7f8a7026}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13061,7 +13051,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{713cb98b-b2d9-406d-8d3f-a98a8b5e1f00}">
+          <x14:cfRule type="dataBar" id="{bc74cd30-4fc6-4c8f-8377-3d09d12f2a5e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13072,7 +13062,7 @@
           <xm:sqref>R2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d4f8c2a0-095d-421b-bee4-63d4b9d84c03}">
+          <x14:cfRule type="dataBar" id="{6e73a3c0-f0c0-4b47-8b29-9f8b764883a9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13085,7 +13075,7 @@
           <xm:sqref>B3:B64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ad0385f-2cb6-4bec-a872-0502b72d29be}">
+          <x14:cfRule type="dataBar" id="{c2c6d57e-ab3c-4eb5-b1d5-a9a7e43d39bb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13098,7 +13088,7 @@
           <xm:sqref>D3:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ff9f4ab-4a48-45af-86b3-3e497c94be7f}">
+          <x14:cfRule type="dataBar" id="{31072330-8063-4b8d-8872-0f1c9ecc714d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13111,7 +13101,7 @@
           <xm:sqref>D35:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5cebb537-6084-4aa3-b1a3-b8fd1719b0be}">
+          <x14:cfRule type="dataBar" id="{49689d7f-3a10-46b8-9546-4352872bd2ce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13122,7 +13112,7 @@
           <xm:sqref>E3:E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4549ed28-1ede-40e8-a02b-4178b37798b5}">
+          <x14:cfRule type="dataBar" id="{99acf044-7e79-4946-8c2b-540ed5e014b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13133,7 +13123,7 @@
           <xm:sqref>E35:E64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4da95226-c249-4161-9705-58c2569867b3}">
+          <x14:cfRule type="dataBar" id="{f8f268ce-521b-40f2-b0f5-2efb078062e4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13144,7 +13134,7 @@
           <xm:sqref>G3:G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7f0ed8b3-fc72-46d2-b1d5-123099d789e2}">
+          <x14:cfRule type="dataBar" id="{e5465bc5-f1b7-47d2-ba0b-b70ef36f160e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13155,7 +13145,7 @@
           <xm:sqref>G35:G64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8a565ddd-4b8c-4ee0-801b-ea3cc5dbe574}">
+          <x14:cfRule type="dataBar" id="{85ed16b4-c9e6-41ec-9636-369de3b5dc77}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13168,7 +13158,7 @@
           <xm:sqref>M3:M64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{051fcdf8-c35a-40c4-a9cf-57fca74f6cbd}">
+          <x14:cfRule type="dataBar" id="{8f70a7df-b332-4ec8-b55c-efb32897f646}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13181,7 +13171,7 @@
           <xm:sqref>O$1:O$1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55f45b7f-9509-4728-8f61-11b388c34b1a}">
+          <x14:cfRule type="dataBar" id="{6ba2e97e-fbd1-4cf7-acd7-6682ea1761cc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13192,7 +13182,7 @@
           <xm:sqref>P3:P64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f03cd275-c5b8-4e92-a580-733a80e3dde5}">
+          <x14:cfRule type="dataBar" id="{8ac1d776-65a2-47ce-adb0-419667f34da4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13203,7 +13193,7 @@
           <xm:sqref>R3:R64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3f6adfe4-8dde-4847-ba4b-d4903bd0b5e2}">
+          <x14:cfRule type="dataBar" id="{931f3596-cd8e-46e7-9fb1-8fbf1b36de39}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13216,7 +13206,7 @@
           <xm:sqref>D1:D2 D65:D1048576 D33:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{87ad1766-df98-4d95-9a71-069987f8a085}">
+          <x14:cfRule type="dataBar" id="{31c9c415-2eac-4871-8349-08a8f00036ce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13227,7 +13217,7 @@
           <xm:sqref>E33:E34 E1 E65:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b3c9b7a9-ff9f-441f-8885-a82e256577a5}">
+          <x14:cfRule type="dataBar" id="{76dc3fa6-72bf-425b-a933-e986a69608c8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13238,7 +13228,7 @@
           <xm:sqref>G33:G34 G1 G65:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0bf0406e-b40e-4934-bc6c-af7c79198c09}">
+          <x14:cfRule type="dataBar" id="{cd0a23fc-900c-4123-b730-5daf7be1f6e1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13249,7 +13239,7 @@
           <xm:sqref>P65:P1048576 P1:P2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d86ac740-2471-4256-a5a6-2e055b50a346}">
+          <x14:cfRule type="dataBar" id="{2aeab45b-dd37-4f3e-aa1e-d90f34fcae84}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
